--- a/liquidity/data/liquidity/HSCEI.xlsx
+++ b/liquidity/data/liquidity/HSCEI.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5864"/>
+  <dimension ref="A1:B5867"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -47298,6 +47298,30 @@
         <v>11.5964826962589</v>
       </c>
     </row>
+    <row r="5865" spans="1:2">
+      <c r="A5865" s="2">
+        <v>43382</v>
+      </c>
+      <c r="B5865">
+        <v>10.78006526069411</v>
+      </c>
+    </row>
+    <row r="5866" spans="1:2">
+      <c r="A5866" s="2">
+        <v>43383</v>
+      </c>
+      <c r="B5866">
+        <v>12.43914868134665</v>
+      </c>
+    </row>
+    <row r="5867" spans="1:2">
+      <c r="A5867" s="2">
+        <v>43384</v>
+      </c>
+      <c r="B5867">
+        <v>15.71512538495471</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
